--- a/data/trans_orig/P17C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P17C-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{520ED1AB-0C36-486F-9A02-7B52307E11B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E526F60-6F9B-433D-B2C2-7490DB7F7190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4B48F65C-2367-46A3-93C3-28A59E7E7E89}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0B0B7107-276A-4DAA-9F7C-F06B1769321E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="801">
   <si>
     <t>Población según el lugar de la última consulta médica en 2007 (Tasa respuesta: 25,83%)</t>
   </si>
@@ -1946,499 +1946,502 @@
     <t>Población según el lugar de la última consulta médica en 2023 (Tasa respuesta: 23,57%)</t>
   </si>
   <si>
-    <t>5,8%</t>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
   </si>
   <si>
     <t>2,83%</t>
   </si>
   <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
   </si>
   <si>
     <t>4,61%</t>
   </si>
   <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
   </si>
   <si>
     <t>1,83%</t>
   </si>
   <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
   </si>
 </sst>
 </file>
@@ -2850,7 +2853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{663CF037-1CEB-4354-8EEE-3A93E182A7FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7D9636-18B2-4CB6-A779-CFE9D8A4AE37}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4739,7 +4742,7 @@
         <v>106</v>
       </c>
       <c r="N38" s="7">
-        <v>113091</v>
+        <v>113092</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>221</v>
@@ -4790,7 +4793,7 @@
         <v>176</v>
       </c>
       <c r="N39" s="7">
-        <v>186898</v>
+        <v>186899</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>88</v>
@@ -5437,7 +5440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C6D9700-4225-40FD-B16A-86F980857F69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{355F6D7A-C22E-4ECF-AE11-509AFC8FF96B}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8024,7 +8027,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D88F57-F41B-4658-AAEA-B1464EA7DF1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF29CB45-7426-43F2-8399-2097B0A20E6D}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10497,7 +10500,7 @@
         <v>643</v>
       </c>
       <c r="D50" s="7">
-        <v>672575</v>
+        <v>672576</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>626</v>
@@ -10548,7 +10551,7 @@
         <v>804</v>
       </c>
       <c r="D51" s="7">
-        <v>842282</v>
+        <v>842283</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>88</v>
@@ -10611,7 +10614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E0EBEC-BEEA-4ABB-B056-4D3FB9C26591}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE00323A-E8F7-4543-9636-4C21CB28CC57}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10783,46 +10786,46 @@
         <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>2128</v>
+        <v>1980</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>349</v>
+        <v>167</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>195</v>
+        <v>105</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>635</v>
       </c>
       <c r="H5" s="7">
         <v>15</v>
       </c>
       <c r="I5" s="7">
-        <v>9504</v>
+        <v>8485</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>296</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>486</v>
+        <v>24</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="M5" s="7">
         <v>18</v>
       </c>
       <c r="N5" s="7">
-        <v>11632</v>
+        <v>10465</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>599</v>
+        <v>301</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>637</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -10834,10 +10837,10 @@
         <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>2200</v>
+        <v>2012</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
@@ -10849,31 +10852,31 @@
         <v>11</v>
       </c>
       <c r="I6" s="7">
-        <v>5153</v>
+        <v>4813</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>237</v>
+        <v>639</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>197</v>
+        <v>640</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>363</v>
+        <v>47</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
       </c>
       <c r="N6" s="7">
-        <v>7353</v>
+        <v>6826</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>456</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>640</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -10951,31 +10954,31 @@
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>637</v>
+        <v>544</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>262</v>
+        <v>102</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>456</v>
+        <v>600</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>637</v>
+        <v>544</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>97</v>
+        <v>491</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>600</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -11002,22 +11005,22 @@
         <v>2</v>
       </c>
       <c r="I9" s="7">
-        <v>1015</v>
+        <v>930</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>303</v>
+        <v>53</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>54</v>
+        <v>344</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
       </c>
       <c r="N9" s="7">
-        <v>1015</v>
+        <v>930</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>314</v>
@@ -11026,7 +11029,7 @@
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>600</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -11038,46 +11041,46 @@
         <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>4644</v>
+        <v>4610</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>357</v>
+        <v>642</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>362</v>
+        <v>447</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
       </c>
       <c r="I10" s="7">
-        <v>6685</v>
+        <v>6101</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>201</v>
+        <v>298</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>391</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
       </c>
       <c r="N10" s="7">
-        <v>11330</v>
+        <v>10712</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>643</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>599</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>352</v>
+        <v>645</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -11089,46 +11092,46 @@
         <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>4623</v>
+        <v>5101</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>253</v>
+        <v>447</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
       </c>
       <c r="I11" s="7">
-        <v>4368</v>
+        <v>4005</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>50</v>
+        <v>648</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>94</v>
+        <v>497</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>495</v>
+        <v>524</v>
       </c>
       <c r="M11" s="7">
         <v>13</v>
       </c>
       <c r="N11" s="7">
-        <v>8990</v>
+        <v>9106</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>295</v>
+        <v>649</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>354</v>
+        <v>650</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -11140,46 +11143,46 @@
         <v>22</v>
       </c>
       <c r="D12" s="7">
-        <v>17354</v>
+        <v>16705</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="H12" s="7">
         <v>34</v>
       </c>
       <c r="I12" s="7">
-        <v>19464</v>
+        <v>18189</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>378</v>
+        <v>317</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>507</v>
+        <v>200</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>76</v>
+        <v>502</v>
       </c>
       <c r="M12" s="7">
         <v>56</v>
       </c>
       <c r="N12" s="7">
-        <v>36818</v>
+        <v>34894</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>650</v>
+        <v>467</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -11191,46 +11194,46 @@
         <v>15</v>
       </c>
       <c r="D13" s="7">
-        <v>12824</v>
+        <v>11891</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>653</v>
+        <v>107</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
       </c>
       <c r="I13" s="7">
-        <v>11662</v>
+        <v>10508</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>175</v>
+        <v>659</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="M13" s="7">
         <v>33</v>
       </c>
       <c r="N13" s="7">
-        <v>24486</v>
+        <v>22399</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>265</v>
+        <v>661</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>205</v>
+        <v>663</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -11242,46 +11245,46 @@
         <v>132</v>
       </c>
       <c r="D14" s="7">
-        <v>101005</v>
+        <v>94587</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="H14" s="7">
         <v>340</v>
       </c>
       <c r="I14" s="7">
-        <v>207832</v>
+        <v>184027</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="M14" s="7">
         <v>472</v>
       </c>
       <c r="N14" s="7">
-        <v>308837</v>
+        <v>278614</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -11293,7 +11296,7 @@
         <v>186</v>
       </c>
       <c r="D15" s="7">
-        <v>144778</v>
+        <v>136888</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>88</v>
@@ -11308,7 +11311,7 @@
         <v>441</v>
       </c>
       <c r="I15" s="7">
-        <v>266321</v>
+        <v>237602</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>88</v>
@@ -11323,7 +11326,7 @@
         <v>627</v>
       </c>
       <c r="N15" s="7">
-        <v>411099</v>
+        <v>374490</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>88</v>
@@ -11361,31 +11364,31 @@
         <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>3247</v>
+        <v>2920</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>521</v>
+        <v>224</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>30</v>
+        <v>491</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>667</v>
+        <v>167</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>3247</v>
+        <v>2920</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>235</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>260</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -11397,46 +11400,46 @@
         <v>11</v>
       </c>
       <c r="D17" s="7">
-        <v>9409</v>
+        <v>9319</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>505</v>
+        <v>389</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>54</v>
+        <v>344</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>668</v>
+        <v>249</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
       </c>
       <c r="I17" s="7">
-        <v>16581</v>
+        <v>15648</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>346</v>
+        <v>128</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>488</v>
+        <v>673</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="M17" s="7">
         <v>36</v>
       </c>
       <c r="N17" s="7">
-        <v>25989</v>
+        <v>24967</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>487</v>
+        <v>675</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>670</v>
+        <v>604</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -11463,31 +11466,31 @@
         <v>1</v>
       </c>
       <c r="I18" s="7">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>53</v>
+        <v>303</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
       </c>
       <c r="N18" s="7">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>314</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -11499,46 +11502,46 @@
         <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>2527</v>
+        <v>2345</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>409</v>
+        <v>534</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>2216</v>
+        <v>1983</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>674</v>
+        <v>233</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>20</v>
+        <v>231</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>362</v>
+        <v>680</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
       </c>
       <c r="N19" s="7">
-        <v>4743</v>
+        <v>4328</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>18</v>
+        <v>225</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>675</v>
+        <v>640</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -11550,46 +11553,46 @@
         <v>11</v>
       </c>
       <c r="D20" s="7">
-        <v>9470</v>
+        <v>9109</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>362</v>
+        <v>682</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>493</v>
+        <v>683</v>
       </c>
       <c r="H20" s="7">
         <v>15</v>
       </c>
       <c r="I20" s="7">
-        <v>9680</v>
+        <v>8812</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>677</v>
+        <v>304</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="M20" s="7">
         <v>26</v>
       </c>
       <c r="N20" s="7">
-        <v>19150</v>
+        <v>17921</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>349</v>
+        <v>391</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>679</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -11601,46 +11604,46 @@
         <v>7</v>
       </c>
       <c r="D21" s="7">
-        <v>10464</v>
+        <v>10142</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>680</v>
+        <v>246</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>681</v>
+        <v>93</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>359</v>
+        <v>685</v>
       </c>
       <c r="H21" s="7">
         <v>19</v>
       </c>
       <c r="I21" s="7">
-        <v>14809</v>
+        <v>13599</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>351</v>
+        <v>686</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>455</v>
+        <v>40</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>507</v>
+        <v>687</v>
       </c>
       <c r="M21" s="7">
         <v>26</v>
       </c>
       <c r="N21" s="7">
-        <v>25273</v>
+        <v>23741</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>682</v>
+        <v>659</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>494</v>
+        <v>194</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -11652,46 +11655,46 @@
         <v>18</v>
       </c>
       <c r="D22" s="7">
-        <v>16144</v>
+        <v>15785</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>608</v>
+        <v>690</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
       </c>
       <c r="I22" s="7">
-        <v>18519</v>
+        <v>16336</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>687</v>
+        <v>31</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>267</v>
+        <v>693</v>
       </c>
       <c r="M22" s="7">
         <v>35</v>
       </c>
       <c r="N22" s="7">
-        <v>34663</v>
+        <v>32122</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>657</v>
+        <v>694</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>680</v>
+        <v>649</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -11703,46 +11706,46 @@
         <v>5</v>
       </c>
       <c r="D23" s="7">
-        <v>6038</v>
+        <v>5575</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>45</v>
+        <v>255</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>172</v>
+        <v>13</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="H23" s="7">
         <v>9</v>
       </c>
       <c r="I23" s="7">
-        <v>7815</v>
+        <v>7459</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>667</v>
+        <v>305</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>227</v>
+        <v>172</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="M23" s="7">
         <v>14</v>
       </c>
       <c r="N23" s="7">
-        <v>13853</v>
+        <v>13034</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>301</v>
+        <v>492</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>170</v>
+        <v>307</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>404</v>
+        <v>698</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -11754,46 +11757,46 @@
         <v>34</v>
       </c>
       <c r="D24" s="7">
-        <v>32042</v>
+        <v>31119</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>395</v>
+        <v>699</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>691</v>
+        <v>122</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="H24" s="7">
         <v>66</v>
       </c>
       <c r="I24" s="7">
-        <v>42714</v>
+        <v>40732</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>693</v>
+        <v>701</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>656</v>
+        <v>263</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="M24" s="7">
         <v>100</v>
       </c>
       <c r="N24" s="7">
-        <v>74755</v>
+        <v>71852</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>120</v>
+        <v>704</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -11805,46 +11808,46 @@
         <v>34</v>
       </c>
       <c r="D25" s="7">
-        <v>38238</v>
+        <v>34933</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>323</v>
+        <v>707</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>698</v>
+        <v>708</v>
       </c>
       <c r="H25" s="7">
         <v>49</v>
       </c>
       <c r="I25" s="7">
-        <v>37032</v>
+        <v>33025</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>699</v>
+        <v>709</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>701</v>
+        <v>711</v>
       </c>
       <c r="M25" s="7">
         <v>83</v>
       </c>
       <c r="N25" s="7">
-        <v>75269</v>
+        <v>67958</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>702</v>
+        <v>331</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -11856,46 +11859,46 @@
         <v>256</v>
       </c>
       <c r="D26" s="7">
-        <v>261299</v>
+        <v>251331</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>707</v>
+        <v>482</v>
       </c>
       <c r="H26" s="7">
         <v>457</v>
       </c>
       <c r="I26" s="7">
-        <v>334165</v>
+        <v>360716</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="M26" s="7">
         <v>713</v>
       </c>
       <c r="N26" s="7">
-        <v>595464</v>
+        <v>612048</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>153</v>
+        <v>719</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>711</v>
+        <v>720</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>712</v>
+        <v>721</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -11907,7 +11910,7 @@
         <v>379</v>
       </c>
       <c r="D27" s="7">
-        <v>385630</v>
+        <v>369658</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>88</v>
@@ -11922,7 +11925,7 @@
         <v>665</v>
       </c>
       <c r="I27" s="7">
-        <v>487142</v>
+        <v>501573</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>88</v>
@@ -11937,7 +11940,7 @@
         <v>1044</v>
       </c>
       <c r="N27" s="7">
-        <v>872772</v>
+        <v>871232</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>88</v>
@@ -12011,46 +12014,46 @@
         <v>7</v>
       </c>
       <c r="D29" s="7">
-        <v>7065</v>
+        <v>6793</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>342</v>
+        <v>263</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>257</v>
+        <v>313</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>713</v>
+        <v>722</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
       </c>
       <c r="I29" s="7">
-        <v>4204</v>
+        <v>3911</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>411</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>236</v>
+        <v>485</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
       <c r="M29" s="7">
         <v>13</v>
       </c>
       <c r="N29" s="7">
-        <v>11269</v>
+        <v>10705</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>715</v>
+        <v>646</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>604</v>
+        <v>237</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>585</v>
+        <v>724</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -12113,46 +12116,46 @@
         <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>1386</v>
+        <v>1463</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>104</v>
+        <v>640</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>716</v>
+        <v>725</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
       </c>
       <c r="I31" s="7">
-        <v>740</v>
+        <v>625</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>674</v>
+        <v>228</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>345</v>
+        <v>244</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
       </c>
       <c r="N31" s="7">
-        <v>2126</v>
+        <v>2088</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>717</v>
+        <v>131</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>411</v>
+        <v>526</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -12164,46 +12167,46 @@
         <v>5</v>
       </c>
       <c r="D32" s="7">
-        <v>4865</v>
+        <v>4507</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>718</v>
+        <v>696</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>533</v>
+        <v>309</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="H32" s="7">
         <v>10</v>
       </c>
       <c r="I32" s="7">
-        <v>6820</v>
+        <v>6494</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>353</v>
+        <v>248</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>721</v>
+        <v>643</v>
       </c>
       <c r="M32" s="7">
         <v>15</v>
       </c>
       <c r="N32" s="7">
-        <v>11685</v>
+        <v>11001</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>523</v>
+        <v>540</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>109</v>
+        <v>486</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -12215,46 +12218,46 @@
         <v>7</v>
       </c>
       <c r="D33" s="7">
-        <v>6400</v>
+        <v>6288</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>575</v>
+        <v>241</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>586</v>
+        <v>730</v>
       </c>
       <c r="H33" s="7">
         <v>18</v>
       </c>
       <c r="I33" s="7">
-        <v>14027</v>
+        <v>13005</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>724</v>
+        <v>213</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>725</v>
+        <v>200</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>726</v>
+        <v>178</v>
       </c>
       <c r="M33" s="7">
         <v>25</v>
       </c>
       <c r="N33" s="7">
-        <v>20427</v>
+        <v>19293</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>728</v>
+        <v>164</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -12266,46 +12269,46 @@
         <v>4</v>
       </c>
       <c r="D34" s="7">
-        <v>2689</v>
+        <v>2423</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>610</v>
+        <v>641</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>292</v>
+        <v>13</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>730</v>
+        <v>408</v>
       </c>
       <c r="H34" s="7">
         <v>6</v>
       </c>
       <c r="I34" s="7">
-        <v>3009</v>
+        <v>3081</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>731</v>
+        <v>575</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>136</v>
+        <v>733</v>
       </c>
       <c r="M34" s="7">
         <v>10</v>
       </c>
       <c r="N34" s="7">
-        <v>5698</v>
+        <v>5504</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>732</v>
+        <v>604</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>600</v>
+        <v>489</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>583</v>
+        <v>734</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -12317,46 +12320,46 @@
         <v>3</v>
       </c>
       <c r="D35" s="7">
-        <v>3528</v>
+        <v>3258</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>298</v>
+        <v>505</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>674</v>
+        <v>39</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>331</v>
+        <v>614</v>
       </c>
       <c r="H35" s="7">
         <v>3</v>
       </c>
       <c r="I35" s="7">
-        <v>2947</v>
+        <v>2710</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>639</v>
+        <v>735</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>714</v>
+        <v>577</v>
       </c>
       <c r="M35" s="7">
         <v>6</v>
       </c>
       <c r="N35" s="7">
-        <v>6475</v>
+        <v>5969</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>733</v>
+        <v>486</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>603</v>
+        <v>108</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -12368,46 +12371,46 @@
         <v>23</v>
       </c>
       <c r="D36" s="7">
-        <v>20374</v>
+        <v>20308</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="H36" s="7">
         <v>31</v>
       </c>
       <c r="I36" s="7">
-        <v>17689</v>
+        <v>16748</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="M36" s="7">
         <v>54</v>
       </c>
       <c r="N36" s="7">
-        <v>38063</v>
+        <v>37056</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>613</v>
+        <v>579</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -12419,46 +12422,46 @@
         <v>14</v>
       </c>
       <c r="D37" s="7">
-        <v>11118</v>
+        <v>11014</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>743</v>
+        <v>703</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>493</v>
+        <v>745</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="H37" s="7">
         <v>16</v>
       </c>
       <c r="I37" s="7">
-        <v>13700</v>
+        <v>12567</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>395</v>
+        <v>747</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>746</v>
+        <v>142</v>
       </c>
       <c r="M37" s="7">
         <v>30</v>
       </c>
       <c r="N37" s="7">
-        <v>24818</v>
+        <v>23582</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -12470,46 +12473,46 @@
         <v>81</v>
       </c>
       <c r="D38" s="7">
-        <v>79997</v>
+        <v>77428</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>436</v>
+        <v>754</v>
       </c>
       <c r="H38" s="7">
         <v>147</v>
       </c>
       <c r="I38" s="7">
-        <v>101748</v>
+        <v>94315</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="M38" s="7">
         <v>228</v>
       </c>
       <c r="N38" s="7">
-        <v>181745</v>
+        <v>171743</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -12521,7 +12524,7 @@
         <v>145</v>
       </c>
       <c r="D39" s="7">
-        <v>137422</v>
+        <v>133483</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>88</v>
@@ -12536,7 +12539,7 @@
         <v>238</v>
       </c>
       <c r="I39" s="7">
-        <v>164885</v>
+        <v>153456</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>88</v>
@@ -12551,7 +12554,7 @@
         <v>383</v>
       </c>
       <c r="N39" s="7">
-        <v>302307</v>
+        <v>286939</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>88</v>
@@ -12589,31 +12592,31 @@
         <v>4</v>
       </c>
       <c r="I40" s="7">
-        <v>3247</v>
+        <v>2920</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>444</v>
+        <v>92</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>235</v>
+        <v>679</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>260</v>
+        <v>170</v>
       </c>
       <c r="M40" s="7">
         <v>4</v>
       </c>
       <c r="N40" s="7">
-        <v>3247</v>
+        <v>2920</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>441</v>
+        <v>225</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>442</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>195</v>
+        <v>761</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -12625,46 +12628,46 @@
         <v>21</v>
       </c>
       <c r="D41" s="7">
-        <v>18602</v>
+        <v>18092</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>759</v>
+        <v>494</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>164</v>
+        <v>763</v>
       </c>
       <c r="H41" s="7">
         <v>46</v>
       </c>
       <c r="I41" s="7">
-        <v>30289</v>
+        <v>28044</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>760</v>
+        <v>510</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>505</v>
+        <v>522</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="M41" s="7">
         <v>67</v>
       </c>
       <c r="N41" s="7">
-        <v>48891</v>
+        <v>46136</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>762</v>
+        <v>684</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>532</v>
+        <v>765</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>657</v>
+        <v>766</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -12676,46 +12679,46 @@
         <v>2</v>
       </c>
       <c r="D42" s="7">
-        <v>2200</v>
+        <v>2012</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>192</v>
+        <v>253</v>
       </c>
       <c r="H42" s="7">
         <v>12</v>
       </c>
       <c r="I42" s="7">
-        <v>5519</v>
+        <v>5156</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>356</v>
+        <v>224</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="M42" s="7">
         <v>14</v>
       </c>
       <c r="N42" s="7">
-        <v>7719</v>
+        <v>7168</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>55</v>
+        <v>195</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>28</v>
+        <v>314</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>90</v>
+        <v>232</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -12727,46 +12730,46 @@
         <v>4</v>
       </c>
       <c r="D43" s="7">
-        <v>3913</v>
+        <v>3808</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>37</v>
+        <v>356</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>290</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>259</v>
+        <v>306</v>
       </c>
       <c r="H43" s="7">
         <v>4</v>
       </c>
       <c r="I43" s="7">
-        <v>2956</v>
+        <v>2608</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>498</v>
+        <v>230</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>27</v>
+        <v>459</v>
       </c>
       <c r="M43" s="7">
         <v>8</v>
       </c>
       <c r="N43" s="7">
-        <v>6869</v>
+        <v>6417</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>225</v>
+        <v>290</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -12778,46 +12781,46 @@
         <v>16</v>
       </c>
       <c r="D44" s="7">
-        <v>14334</v>
+        <v>13616</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>522</v>
+        <v>767</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>675</v>
+        <v>253</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="H44" s="7">
         <v>26</v>
       </c>
       <c r="I44" s="7">
-        <v>17138</v>
+        <v>15849</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>455</v>
+        <v>494</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>192</v>
+        <v>640</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>763</v>
+        <v>112</v>
       </c>
       <c r="M44" s="7">
         <v>42</v>
       </c>
       <c r="N44" s="7">
-        <v>31472</v>
+        <v>29465</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>204</v>
+        <v>604</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>34</v>
+        <v>527</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>605</v>
+        <v>768</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -12829,46 +12832,46 @@
         <v>14</v>
       </c>
       <c r="D45" s="7">
-        <v>16864</v>
+        <v>16430</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>112</v>
+        <v>298</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>764</v>
+        <v>598</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="H45" s="7">
         <v>39</v>
       </c>
       <c r="I45" s="7">
-        <v>29850</v>
+        <v>27534</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>449</v>
+        <v>486</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>352</v>
+        <v>771</v>
       </c>
       <c r="M45" s="7">
         <v>53</v>
       </c>
       <c r="N45" s="7">
-        <v>46715</v>
+        <v>43963</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>767</v>
+        <v>675</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>295</v>
+        <v>486</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>38</v>
+        <v>772</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -12880,46 +12883,46 @@
         <v>29</v>
       </c>
       <c r="D46" s="7">
-        <v>23477</v>
+        <v>22819</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>768</v>
+        <v>296</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>769</v>
+        <v>449</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>669</v>
+        <v>773</v>
       </c>
       <c r="H46" s="7">
         <v>35</v>
       </c>
       <c r="I46" s="7">
-        <v>28214</v>
+        <v>25519</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>543</v>
+        <v>169</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>103</v>
+        <v>774</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="M46" s="7">
         <v>64</v>
       </c>
       <c r="N46" s="7">
-        <v>51691</v>
+        <v>48337</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>771</v>
+        <v>578</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>772</v>
+        <v>460</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -12931,43 +12934,43 @@
         <v>13</v>
       </c>
       <c r="D47" s="7">
-        <v>14189</v>
+        <v>13934</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>248</v>
+        <v>534</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>19</v>
+        <v>777</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="H47" s="7">
         <v>20</v>
       </c>
       <c r="I47" s="7">
-        <v>15129</v>
+        <v>14174</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>31</v>
+        <v>301</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>243</v>
+        <v>299</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>602</v>
+        <v>698</v>
       </c>
       <c r="M47" s="7">
         <v>33</v>
       </c>
       <c r="N47" s="7">
-        <v>29318</v>
+        <v>28108</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>452</v>
+        <v>779</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>533</v>
+        <v>49</v>
       </c>
       <c r="Q47" s="7" t="s">
         <v>175</v>
@@ -12982,46 +12985,46 @@
         <v>79</v>
       </c>
       <c r="D48" s="7">
-        <v>69769</v>
+        <v>68132</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="H48" s="7">
         <v>131</v>
       </c>
       <c r="I48" s="7">
-        <v>79867</v>
+        <v>75669</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="M48" s="7">
         <v>210</v>
       </c>
       <c r="N48" s="7">
-        <v>149637</v>
+        <v>143801</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>783</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -13033,46 +13036,46 @@
         <v>63</v>
       </c>
       <c r="D49" s="7">
-        <v>62179</v>
+        <v>57838</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="H49" s="7">
         <v>83</v>
       </c>
       <c r="I49" s="7">
-        <v>62394</v>
+        <v>56101</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>650</v>
+        <v>570</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>787</v>
+        <v>644</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="M49" s="7">
         <v>146</v>
       </c>
       <c r="N49" s="7">
-        <v>124573</v>
+        <v>113939</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>789</v>
+        <v>741</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>790</v>
+        <v>265</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>613</v>
+        <v>791</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -13084,46 +13087,46 @@
         <v>469</v>
       </c>
       <c r="D50" s="7">
-        <v>442302</v>
+        <v>423347</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H50" s="7">
         <v>944</v>
       </c>
       <c r="I50" s="7">
-        <v>643744</v>
+        <v>639059</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="M50" s="7">
         <v>1413</v>
       </c>
       <c r="N50" s="7">
-        <v>1086046</v>
+        <v>1062406</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -13135,7 +13138,7 @@
         <v>710</v>
       </c>
       <c r="D51" s="7">
-        <v>667831</v>
+        <v>640029</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>88</v>
@@ -13150,7 +13153,7 @@
         <v>1344</v>
       </c>
       <c r="I51" s="7">
-        <v>918347</v>
+        <v>892632</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>88</v>
@@ -13165,7 +13168,7 @@
         <v>2054</v>
       </c>
       <c r="N51" s="7">
-        <v>1586178</v>
+        <v>1532661</v>
       </c>
       <c r="O51" s="7" t="s">
         <v>88</v>
